--- a/Code/Results/Cases/Case_1_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_212/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6728364740932875</v>
+        <v>0.2328912624424504</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.283638240173758</v>
+        <v>0.3174028231195223</v>
       </c>
       <c r="E2">
-        <v>0.3709144802167472</v>
+        <v>0.0907717726627979</v>
       </c>
       <c r="F2">
-        <v>12.29099320482356</v>
+        <v>8.151866876652718</v>
       </c>
       <c r="G2">
-        <v>0.0006263770644163121</v>
+        <v>0.002693740383450863</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6508621472689669</v>
+        <v>0.5626248368130788</v>
       </c>
       <c r="J2">
-        <v>0.1006415057187624</v>
+        <v>0.07877150001412048</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.84270654938086</v>
+        <v>4.497324019383484</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5816025139581882</v>
+        <v>0.2039938402802761</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.026296810218611</v>
+        <v>0.2841876498375768</v>
       </c>
       <c r="E3">
-        <v>0.3054693048232409</v>
+        <v>0.0789721345030614</v>
       </c>
       <c r="F3">
-        <v>9.98884513737579</v>
+        <v>8.006350376761048</v>
       </c>
       <c r="G3">
-        <v>0.0006724769013330967</v>
+        <v>0.002711687236060236</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6030484356599572</v>
+        <v>0.5527629649614383</v>
       </c>
       <c r="J3">
-        <v>0.09110978923717994</v>
+        <v>0.07639903279849136</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.038030517171535</v>
+        <v>4.17769716926</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5265415222525576</v>
+        <v>0.1862001470456391</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.891112955410847</v>
+        <v>0.2641461513723868</v>
       </c>
       <c r="E4">
-        <v>0.2697516631707302</v>
+        <v>0.07173831418496235</v>
       </c>
       <c r="F4">
-        <v>8.813203621329251</v>
+        <v>7.926547348246714</v>
       </c>
       <c r="G4">
-        <v>0.0006987212513972787</v>
+        <v>0.002723206857165268</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5761322461952858</v>
+        <v>0.5472579255766874</v>
       </c>
       <c r="J4">
-        <v>0.08551763384497235</v>
+        <v>0.07496044241923983</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.038570112700313</v>
+        <v>3.98359645714487</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5042736353902626</v>
+        <v>0.1789365688381395</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.839843907850792</v>
+        <v>0.2560619924672949</v>
       </c>
       <c r="E5">
-        <v>0.2559346829257478</v>
+        <v>0.06879229350154503</v>
       </c>
       <c r="F5">
-        <v>8.374753238938183</v>
+        <v>7.896365601515896</v>
       </c>
       <c r="G5">
-        <v>0.0007091149450045066</v>
+        <v>0.002728027985388804</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5656946147583497</v>
+        <v>0.5451528675961228</v>
       </c>
       <c r="J5">
-        <v>0.08328424751386621</v>
+        <v>0.07437878826331712</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.649582001973585</v>
+        <v>3.905017250361794</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5005847130116194</v>
+        <v>0.177729708878644</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8315224762819469</v>
+        <v>0.2547244665367145</v>
       </c>
       <c r="E6">
-        <v>0.2536771906190793</v>
+        <v>0.06830319053859313</v>
       </c>
       <c r="F6">
-        <v>8.304011664356665</v>
+        <v>7.891493437547638</v>
       </c>
       <c r="G6">
-        <v>0.0007108270538551534</v>
+        <v>0.002728836217230569</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5639914236778552</v>
+        <v>0.5448116763684538</v>
       </c>
       <c r="J6">
-        <v>0.08291573462712876</v>
+        <v>0.07428248274018046</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>7.585911775375564</v>
+        <v>3.891999904540114</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.52624059740387</v>
+        <v>0.1861022382144597</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.890407905040405</v>
+        <v>0.2640367973622517</v>
       </c>
       <c r="E7">
-        <v>0.2695627026578649</v>
+        <v>0.07169857704098348</v>
       </c>
       <c r="F7">
-        <v>8.80714455548403</v>
+        <v>7.926130917207104</v>
       </c>
       <c r="G7">
-        <v>0.0006988624335374303</v>
+        <v>0.002723271361814451</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5759894277795112</v>
+        <v>0.5472289761188875</v>
       </c>
       <c r="J7">
-        <v>0.08548734881334497</v>
+        <v>0.07495257943140388</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.033258721133564</v>
+        <v>3.982534640509272</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6411280098512009</v>
+        <v>0.2229380312659828</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.188616540328781</v>
+        <v>0.3058734614974981</v>
       </c>
       <c r="E8">
-        <v>0.3471102603552083</v>
+        <v>0.08670031534071398</v>
       </c>
       <c r="F8">
-        <v>11.43238618673053</v>
+        <v>8.099674064923903</v>
       </c>
       <c r="G8">
-        <v>0.0006428750868284485</v>
+        <v>0.002699825264281586</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6338129959198895</v>
+        <v>0.5591102077466772</v>
       </c>
       <c r="J8">
-        <v>0.09728473290318362</v>
+        <v>0.07794972871329264</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.19066391909922</v>
+        <v>4.386656101675925</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8812749611601589</v>
+        <v>0.2947678742724236</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.243642025845674</v>
+        <v>0.3909885525628169</v>
       </c>
       <c r="E9">
-        <v>0.5931350180738306</v>
+        <v>0.1162558863173757</v>
       </c>
       <c r="F9">
-        <v>21.29958115672952</v>
+        <v>8.518627748919187</v>
       </c>
       <c r="G9">
-        <v>0.0004845661874581995</v>
+        <v>0.002657768992420295</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7713654744647727</v>
+        <v>0.5867839264241965</v>
       </c>
       <c r="J9">
-        <v>0.1256150289508327</v>
+        <v>0.0839701482974391</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.60436890315552</v>
+        <v>5.197323384710359</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8812749611601589</v>
+        <v>0.3472971166443131</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.243642025845674</v>
+        <v>0.4557980457789199</v>
       </c>
       <c r="E10">
-        <v>0.5931350180738306</v>
+        <v>0.1381260196927343</v>
       </c>
       <c r="F10">
-        <v>21.29958115672952</v>
+        <v>8.878602576530909</v>
       </c>
       <c r="G10">
-        <v>0.0004845661874581995</v>
+        <v>0.002629193096444872</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7713654744647727</v>
+        <v>0.609804863871986</v>
       </c>
       <c r="J10">
-        <v>0.1256150289508327</v>
+        <v>0.088480382627111</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.60436890315552</v>
+        <v>5.805700348586214</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8812749611601589</v>
+        <v>0.3711427610551823</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.243642025845674</v>
+        <v>0.4858687095702408</v>
       </c>
       <c r="E11">
-        <v>0.5931350180738306</v>
+        <v>0.1481259497588283</v>
       </c>
       <c r="F11">
-        <v>21.29958115672952</v>
+        <v>9.054672088856648</v>
       </c>
       <c r="G11">
-        <v>0.0004845661874581995</v>
+        <v>0.002616682340005267</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7713654744647727</v>
+        <v>0.6208682896732824</v>
       </c>
       <c r="J11">
-        <v>0.1256150289508327</v>
+        <v>0.09055119052499805</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.60436890315552</v>
+        <v>6.085642332858953</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8812749611601589</v>
+        <v>0.3801653520100103</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.243642025845674</v>
+        <v>0.497348326357212</v>
       </c>
       <c r="E12">
-        <v>0.5931350180738306</v>
+        <v>0.1519214464258383</v>
       </c>
       <c r="F12">
-        <v>21.29958115672952</v>
+        <v>9.123200786344285</v>
       </c>
       <c r="G12">
-        <v>0.0004845661874581995</v>
+        <v>0.002612013833554634</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7713654744647727</v>
+        <v>0.6251433085949856</v>
       </c>
       <c r="J12">
-        <v>0.1256150289508327</v>
+        <v>0.09133809723518027</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.60436890315552</v>
+        <v>6.192141625164055</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8812749611601589</v>
+        <v>0.3782224973815573</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.243642025845674</v>
+        <v>0.4948717412123074</v>
       </c>
       <c r="E13">
-        <v>0.5931350180738306</v>
+        <v>0.1511036065636446</v>
       </c>
       <c r="F13">
-        <v>21.29958115672952</v>
+        <v>9.108358018614524</v>
       </c>
       <c r="G13">
-        <v>0.0004845661874581995</v>
+        <v>0.002613016228865991</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7713654744647727</v>
+        <v>0.6242187928083496</v>
       </c>
       <c r="J13">
-        <v>0.1256150289508327</v>
+        <v>0.09116850113999675</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.60436890315552</v>
+        <v>6.169182699201997</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8812749611601589</v>
+        <v>0.3718852000603476</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.243642025845674</v>
+        <v>0.4868112439215224</v>
       </c>
       <c r="E14">
-        <v>0.5931350180738306</v>
+        <v>0.148438024129085</v>
       </c>
       <c r="F14">
-        <v>21.29958115672952</v>
+        <v>9.060272312142729</v>
       </c>
       <c r="G14">
-        <v>0.0004845661874581995</v>
+        <v>0.002616296882386284</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7713654744647727</v>
+        <v>0.6212182802911173</v>
       </c>
       <c r="J14">
-        <v>0.1256150289508327</v>
+        <v>0.09061587498924695</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.60436890315552</v>
+        <v>6.094394050968333</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8812749611601589</v>
+        <v>0.3680024800529509</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.243642025845674</v>
+        <v>0.4818862449245103</v>
       </c>
       <c r="E15">
-        <v>0.5931350180738306</v>
+        <v>0.1468064588274274</v>
       </c>
       <c r="F15">
-        <v>21.29958115672952</v>
+        <v>9.031062572760959</v>
       </c>
       <c r="G15">
-        <v>0.0004845661874581995</v>
+        <v>0.002618315332495386</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7713654744647727</v>
+        <v>0.6193915371226382</v>
       </c>
       <c r="J15">
-        <v>0.1256150289508327</v>
+        <v>0.09027773178949872</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.60436890315552</v>
+        <v>6.048648841825212</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8812749611601589</v>
+        <v>0.3457377352266064</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.243642025845674</v>
+        <v>0.4538453640126932</v>
       </c>
       <c r="E16">
-        <v>0.5931350180738306</v>
+        <v>0.1374736461960211</v>
       </c>
       <c r="F16">
-        <v>21.29958115672952</v>
+        <v>8.86735092340831</v>
       </c>
       <c r="G16">
-        <v>0.0004845661874581995</v>
+        <v>0.002630020432287695</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7713654744647727</v>
+        <v>0.6090937814918931</v>
       </c>
       <c r="J16">
-        <v>0.1256150289508327</v>
+        <v>0.08834543369251691</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.60436890315552</v>
+        <v>5.787472401005289</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8812749611601589</v>
+        <v>0.3320661558088602</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.243642025845674</v>
+        <v>0.4367994036132359</v>
       </c>
       <c r="E17">
-        <v>0.5931350180738306</v>
+        <v>0.131762321314099</v>
       </c>
       <c r="F17">
-        <v>21.29958115672952</v>
+        <v>8.770131832570996</v>
       </c>
       <c r="G17">
-        <v>0.0004845661874581995</v>
+        <v>0.002637325416988563</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7713654744647727</v>
+        <v>0.6029281913893385</v>
       </c>
       <c r="J17">
-        <v>0.1256150289508327</v>
+        <v>0.087164911741759</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.60436890315552</v>
+        <v>5.628088453685422</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8812749611601589</v>
+        <v>0.3241979012330205</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.243642025845674</v>
+        <v>0.4270499150999854</v>
       </c>
       <c r="E18">
-        <v>0.5931350180738306</v>
+        <v>0.1284820398347577</v>
       </c>
       <c r="F18">
-        <v>21.29958115672952</v>
+        <v>8.715367862508117</v>
       </c>
       <c r="G18">
-        <v>0.0004845661874581995</v>
+        <v>0.002641573111412901</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7713654744647727</v>
+        <v>0.5994375049925651</v>
       </c>
       <c r="J18">
-        <v>0.1256150289508327</v>
+        <v>0.08648770273313744</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.60436890315552</v>
+        <v>5.536713029133182</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8812749611601589</v>
+        <v>0.3215330355147898</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.243642025845674</v>
+        <v>0.4237581007703568</v>
       </c>
       <c r="E19">
-        <v>0.5931350180738306</v>
+        <v>0.1273721626568118</v>
       </c>
       <c r="F19">
-        <v>21.29958115672952</v>
+        <v>8.697021410071216</v>
       </c>
       <c r="G19">
-        <v>0.0004845661874581995</v>
+        <v>0.002643019254767343</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7713654744647727</v>
+        <v>0.5982651524636253</v>
       </c>
       <c r="J19">
-        <v>0.1256150289508327</v>
+        <v>0.08625872015109337</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.60436890315552</v>
+        <v>5.505825094700697</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8812749611601589</v>
+        <v>0.3335220079601129</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.243642025845674</v>
+        <v>0.4386082377396576</v>
       </c>
       <c r="E20">
-        <v>0.5931350180738306</v>
+        <v>0.1323698030988751</v>
       </c>
       <c r="F20">
-        <v>21.29958115672952</v>
+        <v>8.780360953064019</v>
       </c>
       <c r="G20">
-        <v>0.0004845661874581995</v>
+        <v>0.002636543030257661</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7713654744647727</v>
+        <v>0.60357877115554</v>
       </c>
       <c r="J20">
-        <v>0.1256150289508327</v>
+        <v>0.08729039450540199</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.60436890315552</v>
+        <v>5.645024072790335</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8812749611601589</v>
+        <v>0.3737468142786895</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.243642025845674</v>
+        <v>0.4891762318374049</v>
       </c>
       <c r="E21">
-        <v>0.5931350180738306</v>
+        <v>0.149220721606973</v>
       </c>
       <c r="F21">
-        <v>21.29958115672952</v>
+        <v>9.074345214122843</v>
       </c>
       <c r="G21">
-        <v>0.0004845661874581995</v>
+        <v>0.002615331410845236</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7713654744647727</v>
+        <v>0.6220972772708251</v>
       </c>
       <c r="J21">
-        <v>0.1256150289508327</v>
+        <v>0.09077812044365174</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.60436890315552</v>
+        <v>6.116347682887664</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8812749611601589</v>
+        <v>0.3999938876883959</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.243642025845674</v>
+        <v>0.522768509064349</v>
       </c>
       <c r="E22">
-        <v>0.5931350180738306</v>
+        <v>0.1602854193778995</v>
       </c>
       <c r="F22">
-        <v>21.29958115672952</v>
+        <v>9.277335420131408</v>
       </c>
       <c r="G22">
-        <v>0.0004845661874581995</v>
+        <v>0.002601870250399698</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7713654744647727</v>
+        <v>0.6346990967574442</v>
       </c>
       <c r="J22">
-        <v>0.1256150289508327</v>
+        <v>0.09307350274676196</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.60436890315552</v>
+        <v>6.427265554285157</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8812749611601589</v>
+        <v>0.3859891847647248</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.243642025845674</v>
+        <v>0.5047872658294636</v>
       </c>
       <c r="E23">
-        <v>0.5931350180738306</v>
+        <v>0.1543747751033067</v>
       </c>
       <c r="F23">
-        <v>21.29958115672952</v>
+        <v>9.16797361684786</v>
       </c>
       <c r="G23">
-        <v>0.0004845661874581995</v>
+        <v>0.002609018365313459</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7713654744647727</v>
+        <v>0.6279274165856918</v>
       </c>
       <c r="J23">
-        <v>0.1256150289508327</v>
+        <v>0.09184695547372712</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.60436890315552</v>
+        <v>6.261047852967664</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8812749611601589</v>
+        <v>0.3328638429951241</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.243642025845674</v>
+        <v>0.4377903072483775</v>
       </c>
       <c r="E24">
-        <v>0.5931350180738306</v>
+        <v>0.1320951506112138</v>
       </c>
       <c r="F24">
-        <v>21.29958115672952</v>
+        <v>8.775732858723359</v>
       </c>
       <c r="G24">
-        <v>0.0004845661874581995</v>
+        <v>0.002636896597993902</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7713654744647727</v>
+        <v>0.6032844759054399</v>
       </c>
       <c r="J24">
-        <v>0.1256150289508327</v>
+        <v>0.08723365910987013</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.60436890315552</v>
+        <v>5.63736668282047</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8812749611601589</v>
+        <v>0.2753792222175662</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.243642025845674</v>
+        <v>0.3675932546972547</v>
       </c>
       <c r="E25">
-        <v>0.5931350180738306</v>
+        <v>0.1082384150726767</v>
       </c>
       <c r="F25">
-        <v>21.29958115672952</v>
+        <v>8.39644603875422</v>
       </c>
       <c r="G25">
-        <v>0.0004845661874581995</v>
+        <v>0.002668733399738481</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7713654744647727</v>
+        <v>0.5788271299223453</v>
       </c>
       <c r="J25">
-        <v>0.1256150289508327</v>
+        <v>0.08232618591369345</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.60436890315552</v>
+        <v>4.975900418004812</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_212/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2328912624424504</v>
+        <v>0.6728364740933728</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3174028231195223</v>
+        <v>1.283638240173701</v>
       </c>
       <c r="E2">
-        <v>0.0907717726627979</v>
+        <v>0.3709144802167401</v>
       </c>
       <c r="F2">
-        <v>8.151866876652718</v>
+        <v>12.29099320482368</v>
       </c>
       <c r="G2">
-        <v>0.002693740383450863</v>
+        <v>0.000626377064287688</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5626248368130788</v>
+        <v>0.650862147268974</v>
       </c>
       <c r="J2">
-        <v>0.07877150001412048</v>
+        <v>0.1006415057186203</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.497324019383484</v>
+        <v>10.84270654938092</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2039938402802761</v>
+        <v>0.5816025139581313</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2841876498375768</v>
+        <v>1.02629681021881</v>
       </c>
       <c r="E3">
-        <v>0.0789721345030614</v>
+        <v>0.3054693048232338</v>
       </c>
       <c r="F3">
-        <v>8.006350376761048</v>
+        <v>9.988845137375847</v>
       </c>
       <c r="G3">
-        <v>0.002711687236060236</v>
+        <v>0.0006724769014461336</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5527629649614383</v>
+        <v>0.6030484356599644</v>
       </c>
       <c r="J3">
-        <v>0.07639903279849136</v>
+        <v>0.09110978923703072</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.17769716926</v>
+        <v>9.038030517171563</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1862001470456391</v>
+        <v>0.5265415222525007</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2641461513723868</v>
+        <v>0.8911129554106196</v>
       </c>
       <c r="E4">
-        <v>0.07173831418496235</v>
+        <v>0.2697516631707231</v>
       </c>
       <c r="F4">
-        <v>7.926547348246714</v>
+        <v>8.813203621329137</v>
       </c>
       <c r="G4">
-        <v>0.002723206857165268</v>
+        <v>0.0006987212515081609</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5472579255766874</v>
+        <v>0.5761322461953284</v>
       </c>
       <c r="J4">
-        <v>0.07496044241923983</v>
+        <v>0.08551763384512867</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.98359645714487</v>
+        <v>8.038570112700256</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1789365688381395</v>
+        <v>0.5042736353902626</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2560619924672949</v>
+        <v>0.839843907850593</v>
       </c>
       <c r="E5">
-        <v>0.06879229350154503</v>
+        <v>0.2559346829256768</v>
       </c>
       <c r="F5">
-        <v>7.896365601515896</v>
+        <v>8.374753238938126</v>
       </c>
       <c r="G5">
-        <v>0.002728027985388804</v>
+        <v>0.0007091149450134866</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5451528675961228</v>
+        <v>0.5656946147583568</v>
       </c>
       <c r="J5">
-        <v>0.07437878826331712</v>
+        <v>0.08328424751396568</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.905017250361794</v>
+        <v>7.649582001973528</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.177729708878644</v>
+        <v>0.5005847130113352</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2547244665367145</v>
+        <v>0.8315224762816911</v>
       </c>
       <c r="E6">
-        <v>0.06830319053859313</v>
+        <v>0.2536771906190793</v>
       </c>
       <c r="F6">
-        <v>7.891493437547638</v>
+        <v>8.304011664356693</v>
       </c>
       <c r="G6">
-        <v>0.002728836217230569</v>
+        <v>0.0007108270538479625</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5448116763684538</v>
+        <v>0.5639914236778338</v>
       </c>
       <c r="J6">
-        <v>0.07428248274018046</v>
+        <v>0.08291573462717849</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.891999904540114</v>
+        <v>7.585911775375592</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1861022382144597</v>
+        <v>0.5262405974040405</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2640367973622517</v>
+        <v>0.8904079050403482</v>
       </c>
       <c r="E7">
-        <v>0.07169857704098348</v>
+        <v>0.2695627026578862</v>
       </c>
       <c r="F7">
-        <v>7.926130917207104</v>
+        <v>8.80714455548403</v>
       </c>
       <c r="G7">
-        <v>0.002723271361814451</v>
+        <v>0.0006988624335413373</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5472289761188875</v>
+        <v>0.5759894277794828</v>
       </c>
       <c r="J7">
-        <v>0.07495257943140388</v>
+        <v>0.08548734881341602</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.982534640509272</v>
+        <v>8.033258721133507</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2229380312659828</v>
+        <v>0.6411280098506893</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3058734614974981</v>
+        <v>1.188616540328525</v>
       </c>
       <c r="E8">
-        <v>0.08670031534071398</v>
+        <v>0.3471102603552367</v>
       </c>
       <c r="F8">
-        <v>8.099674064923903</v>
+        <v>11.43238618673058</v>
       </c>
       <c r="G8">
-        <v>0.002699825264281586</v>
+        <v>0.0006428750867049082</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5591102077466772</v>
+        <v>0.6338129959198824</v>
       </c>
       <c r="J8">
-        <v>0.07794972871329264</v>
+        <v>0.09728473290316231</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.386656101675925</v>
+        <v>10.19066391909925</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2947678742724236</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3909885525628169</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E9">
-        <v>0.1162558863173757</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F9">
-        <v>8.518627748919187</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G9">
-        <v>0.002657768992420295</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5867839264241965</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J9">
-        <v>0.0839701482974391</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5.197323384710359</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3472971166443131</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4557980457789199</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E10">
-        <v>0.1381260196927343</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F10">
-        <v>8.878602576530909</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G10">
-        <v>0.002629193096444872</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.609804863871986</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J10">
-        <v>0.088480382627111</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.805700348586214</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3711427610551823</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4858687095702408</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E11">
-        <v>0.1481259497588283</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F11">
-        <v>9.054672088856648</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G11">
-        <v>0.002616682340005267</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6208682896732824</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J11">
-        <v>0.09055119052499805</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6.085642332858953</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3801653520100103</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.497348326357212</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E12">
-        <v>0.1519214464258383</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F12">
-        <v>9.123200786344285</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G12">
-        <v>0.002612013833554634</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6251433085949856</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J12">
-        <v>0.09133809723518027</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>6.192141625164055</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3782224973815573</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4948717412123074</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E13">
-        <v>0.1511036065636446</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F13">
-        <v>9.108358018614524</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G13">
-        <v>0.002613016228865991</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6242187928083496</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J13">
-        <v>0.09116850113999675</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>6.169182699201997</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3718852000603476</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4868112439215224</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E14">
-        <v>0.148438024129085</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F14">
-        <v>9.060272312142729</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G14">
-        <v>0.002616296882386284</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6212182802911173</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J14">
-        <v>0.09061587498924695</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>6.094394050968333</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3680024800529509</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4818862449245103</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E15">
-        <v>0.1468064588274274</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F15">
-        <v>9.031062572760959</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G15">
-        <v>0.002618315332495386</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6193915371226382</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J15">
-        <v>0.09027773178949872</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>6.048648841825212</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3457377352266064</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4538453640126932</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E16">
-        <v>0.1374736461960211</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F16">
-        <v>8.86735092340831</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G16">
-        <v>0.002630020432287695</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6090937814918931</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J16">
-        <v>0.08834543369251691</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5.787472401005289</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3320661558088602</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4367994036132359</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E17">
-        <v>0.131762321314099</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F17">
-        <v>8.770131832570996</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G17">
-        <v>0.002637325416988563</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6029281913893385</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J17">
-        <v>0.087164911741759</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>5.628088453685422</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3241979012330205</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4270499150999854</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E18">
-        <v>0.1284820398347577</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F18">
-        <v>8.715367862508117</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G18">
-        <v>0.002641573111412901</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5994375049925651</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J18">
-        <v>0.08648770273313744</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>5.536713029133182</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3215330355147898</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4237581007703568</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E19">
-        <v>0.1273721626568118</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F19">
-        <v>8.697021410071216</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G19">
-        <v>0.002643019254767343</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5982651524636253</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J19">
-        <v>0.08625872015109337</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>5.505825094700697</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3335220079601129</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4386082377396576</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E20">
-        <v>0.1323698030988751</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F20">
-        <v>8.780360953064019</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G20">
-        <v>0.002636543030257661</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.60357877115554</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J20">
-        <v>0.08729039450540199</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>5.645024072790335</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3737468142786895</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4891762318374049</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E21">
-        <v>0.149220721606973</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F21">
-        <v>9.074345214122843</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G21">
-        <v>0.002615331410845236</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6220972772708251</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J21">
-        <v>0.09077812044365174</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>6.116347682887664</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3999938876883959</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.522768509064349</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E22">
-        <v>0.1602854193778995</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F22">
-        <v>9.277335420131408</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G22">
-        <v>0.002601870250399698</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6346990967574442</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J22">
-        <v>0.09307350274676196</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6.427265554285157</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3859891847647248</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5047872658294636</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E23">
-        <v>0.1543747751033067</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F23">
-        <v>9.16797361684786</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G23">
-        <v>0.002609018365313459</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6279274165856918</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J23">
-        <v>0.09184695547372712</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6.261047852967664</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3328638429951241</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4377903072483775</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E24">
-        <v>0.1320951506112138</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F24">
-        <v>8.775732858723359</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G24">
-        <v>0.002636896597993902</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6032844759054399</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J24">
-        <v>0.08723365910987013</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>5.63736668282047</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2753792222175662</v>
+        <v>0.8812749611601873</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3675932546972547</v>
+        <v>2.243642025845446</v>
       </c>
       <c r="E25">
-        <v>0.1082384150726767</v>
+        <v>0.5931350180738733</v>
       </c>
       <c r="F25">
-        <v>8.39644603875422</v>
+        <v>21.29958115672952</v>
       </c>
       <c r="G25">
-        <v>0.002668733399738481</v>
+        <v>0.0004845661875980678</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5788271299223453</v>
+        <v>0.7713654744647656</v>
       </c>
       <c r="J25">
-        <v>0.08232618591369345</v>
+        <v>0.1256150289506408</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4.975900418004812</v>
+        <v>16.60436890315552</v>
       </c>
       <c r="N25">
         <v>0</v>
